--- a/public/data/lime/lime_table_cote_d_ivoire.xlsx
+++ b/public/data/lime/lime_table_cote_d_ivoire.xlsx
@@ -1315,13 +1315,13 @@
         <v>87</v>
       </c>
       <c r="D2" t="n">
-        <v>6.32</v>
+        <v>5.8</v>
       </c>
       <c r="E2" t="n">
-        <v>5.06</v>
+        <v>3.92</v>
       </c>
       <c r="F2" t="n">
-        <v>3.59</v>
+        <v>1.87</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.13</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2.86</v>
+        <v>1.62</v>
       </c>
       <c r="L2" t="n">
-        <v>1.48</v>
+        <v>0.26</v>
       </c>
       <c r="M2" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -1362,13 +1362,13 @@
         <v>89</v>
       </c>
       <c r="D3" t="n">
-        <v>9.02</v>
+        <v>8.56</v>
       </c>
       <c r="E3" t="n">
-        <v>7.53</v>
+        <v>6.54</v>
       </c>
       <c r="F3" t="n">
-        <v>5.8</v>
+        <v>4.22</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1380,13 +1380,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.69</v>
+        <v>6.14</v>
       </c>
       <c r="K3" t="n">
-        <v>4.97</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>3.04</v>
+        <v>1.39</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1409,13 +1409,13 @@
         <v>90</v>
       </c>
       <c r="D4" t="n">
-        <v>7.53</v>
+        <v>7.06</v>
       </c>
       <c r="E4" t="n">
-        <v>6.04</v>
+        <v>5.07</v>
       </c>
       <c r="F4" t="n">
-        <v>4.35</v>
+        <v>2.99</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.63</v>
+        <v>3.11</v>
       </c>
       <c r="K4" t="n">
-        <v>2.02</v>
+        <v>1.12</v>
       </c>
       <c r="L4" t="n">
-        <v>0.61</v>
+        <v>0.14</v>
       </c>
       <c r="M4" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -1456,13 +1456,13 @@
         <v>91</v>
       </c>
       <c r="D5" t="n">
-        <v>11.24</v>
+        <v>10.84</v>
       </c>
       <c r="E5" t="n">
-        <v>9.91</v>
+        <v>9.05</v>
       </c>
       <c r="F5" t="n">
-        <v>8.36</v>
+        <v>6.96</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -1474,13 +1474,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3.67</v>
+        <v>2.77</v>
       </c>
       <c r="K5" t="n">
-        <v>2.03</v>
+        <v>0.85</v>
       </c>
       <c r="L5" t="n">
-        <v>0.79</v>
+        <v>0.23</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -1503,13 +1503,13 @@
         <v>93</v>
       </c>
       <c r="D6" t="n">
-        <v>7.44</v>
+        <v>6.96</v>
       </c>
       <c r="E6" t="n">
-        <v>5.9</v>
+        <v>4.87</v>
       </c>
       <c r="F6" t="n">
-        <v>4.14</v>
+        <v>2.6</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1521,16 +1521,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6.26</v>
+        <v>5.68</v>
       </c>
       <c r="K6" t="n">
-        <v>4.51</v>
+        <v>3.29</v>
       </c>
       <c r="L6" t="n">
-        <v>2.54</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1550,37 +1550,37 @@
         <v>94</v>
       </c>
       <c r="D7" t="n">
-        <v>5.45</v>
+        <v>4.98</v>
       </c>
       <c r="E7" t="n">
-        <v>4.29</v>
+        <v>3.29</v>
       </c>
       <c r="F7" t="n">
-        <v>2.95</v>
+        <v>1.52</v>
       </c>
       <c r="G7" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3.23</v>
+        <v>2.42</v>
       </c>
       <c r="K7" t="n">
-        <v>1.99</v>
+        <v>0.71</v>
       </c>
       <c r="L7" t="n">
-        <v>0.87</v>
+        <v>0.08</v>
       </c>
       <c r="M7" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1597,16 +1597,16 @@
         <v>96</v>
       </c>
       <c r="D8" t="n">
-        <v>1.21</v>
+        <v>0.91</v>
       </c>
       <c r="E8" t="n">
-        <v>0.56</v>
+        <v>0.22</v>
       </c>
       <c r="F8" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.27</v>
+        <v>0.95</v>
       </c>
       <c r="K8" t="n">
-        <v>0.58</v>
+        <v>0.21</v>
       </c>
       <c r="L8" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1644,16 +1644,16 @@
         <v>97</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="E9" t="n">
-        <v>1.09</v>
+        <v>0.44</v>
       </c>
       <c r="F9" t="n">
-        <v>0.36</v>
+        <v>0.03</v>
       </c>
       <c r="G9" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1662,16 +1662,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.63</v>
+        <v>1.18</v>
       </c>
       <c r="K9" t="n">
-        <v>0.71</v>
+        <v>0.16</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1691,16 +1691,16 @@
         <v>99</v>
       </c>
       <c r="D10" t="n">
-        <v>4.58</v>
+        <v>4.17</v>
       </c>
       <c r="E10" t="n">
-        <v>3.08</v>
+        <v>2.32</v>
       </c>
       <c r="F10" t="n">
-        <v>1.61</v>
+        <v>0.82</v>
       </c>
       <c r="G10" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1709,16 +1709,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.28</v>
+        <v>1.79</v>
       </c>
       <c r="K10" t="n">
-        <v>0.76</v>
+        <v>0.35</v>
       </c>
       <c r="L10" t="n">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="M10" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1738,13 +1738,13 @@
         <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>5.67</v>
+        <v>5.21</v>
       </c>
       <c r="E11" t="n">
-        <v>3.99</v>
+        <v>3.1</v>
       </c>
       <c r="F11" t="n">
-        <v>2.36</v>
+        <v>1.3</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1756,16 +1756,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3.73</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
-        <v>1.99</v>
+        <v>1.21</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7</v>
+        <v>0.25</v>
       </c>
       <c r="M11" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1785,16 +1785,16 @@
         <v>102</v>
       </c>
       <c r="D12" t="n">
-        <v>2.08</v>
+        <v>1.55</v>
       </c>
       <c r="E12" t="n">
-        <v>0.44</v>
+        <v>0.12</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1803,16 +1803,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.84</v>
+        <v>1.12</v>
       </c>
       <c r="K12" t="n">
-        <v>0.29</v>
+        <v>0.04</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1832,16 +1832,16 @@
         <v>103</v>
       </c>
       <c r="D13" t="n">
-        <v>4.07</v>
+        <v>3.45</v>
       </c>
       <c r="E13" t="n">
-        <v>2.24</v>
+        <v>1.09</v>
       </c>
       <c r="F13" t="n">
-        <v>0.56</v>
+        <v>0.11</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="K13" t="n">
-        <v>1.87</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>0.43</v>
+        <v>0.1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1879,13 +1879,13 @@
         <v>104</v>
       </c>
       <c r="D14" t="n">
-        <v>3.48</v>
+        <v>3.03</v>
       </c>
       <c r="E14" t="n">
-        <v>1.88</v>
+        <v>1.13</v>
       </c>
       <c r="F14" t="n">
-        <v>0.63</v>
+        <v>0.2</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1897,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>4.08</v>
+        <v>3.54</v>
       </c>
       <c r="K14" t="n">
-        <v>2.35</v>
+        <v>1.56</v>
       </c>
       <c r="L14" t="n">
-        <v>0.99</v>
+        <v>0.44</v>
       </c>
       <c r="M14" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1926,16 +1926,16 @@
         <v>105</v>
       </c>
       <c r="D15" t="n">
-        <v>2.74</v>
+        <v>2.32</v>
       </c>
       <c r="E15" t="n">
-        <v>1.18</v>
+        <v>0.44</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G15" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1944,16 +1944,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.49</v>
+        <v>2.06</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="L15" t="n">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1973,16 +1973,16 @@
         <v>107</v>
       </c>
       <c r="D16" t="n">
-        <v>4.65</v>
+        <v>4.19</v>
       </c>
       <c r="E16" t="n">
-        <v>3.21</v>
+        <v>2.36</v>
       </c>
       <c r="F16" t="n">
-        <v>1.85</v>
+        <v>0.98</v>
       </c>
       <c r="G16" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1991,16 +1991,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.44</v>
+        <v>1.95</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9</v>
+        <v>0.34</v>
       </c>
       <c r="L16" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="M16" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -2020,13 +2020,13 @@
         <v>108</v>
       </c>
       <c r="D17" t="n">
-        <v>8.34</v>
+        <v>7.77</v>
       </c>
       <c r="E17" t="n">
-        <v>6.8</v>
+        <v>5.58</v>
       </c>
       <c r="F17" t="n">
-        <v>5.02</v>
+        <v>3.31</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -2038,13 +2038,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>6.65</v>
+        <v>6.04</v>
       </c>
       <c r="K17" t="n">
-        <v>4.96</v>
+        <v>3.66</v>
       </c>
       <c r="L17" t="n">
-        <v>3.05</v>
+        <v>1.39</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2067,13 +2067,13 @@
         <v>109</v>
       </c>
       <c r="D18" t="n">
-        <v>7.46</v>
+        <v>6.99</v>
       </c>
       <c r="E18" t="n">
-        <v>6</v>
+        <v>4.99</v>
       </c>
       <c r="F18" t="n">
-        <v>4.32</v>
+        <v>2.81</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2085,16 +2085,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>5.81</v>
+        <v>5.35</v>
       </c>
       <c r="K18" t="n">
-        <v>4.22</v>
+        <v>3.29</v>
       </c>
       <c r="L18" t="n">
-        <v>2.52</v>
+        <v>1.42</v>
       </c>
       <c r="M18" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -2114,13 +2114,13 @@
         <v>111</v>
       </c>
       <c r="D19" t="n">
-        <v>9.75</v>
+        <v>9.3</v>
       </c>
       <c r="E19" t="n">
-        <v>8.09</v>
+        <v>7.13</v>
       </c>
       <c r="F19" t="n">
-        <v>6.16</v>
+        <v>4.69</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2132,13 +2132,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>8.62</v>
+        <v>8.08</v>
       </c>
       <c r="K19" t="n">
-        <v>6.7</v>
+        <v>5.53</v>
       </c>
       <c r="L19" t="n">
-        <v>4.47</v>
+        <v>2.65</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2161,16 +2161,16 @@
         <v>112</v>
       </c>
       <c r="D20" t="n">
-        <v>6.29</v>
+        <v>5.65</v>
       </c>
       <c r="E20" t="n">
-        <v>4.53</v>
+        <v>3.37</v>
       </c>
       <c r="F20" t="n">
-        <v>2.74</v>
+        <v>1.53</v>
       </c>
       <c r="G20" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2179,16 +2179,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>4.34</v>
+        <v>3.6</v>
       </c>
       <c r="K20" t="n">
-        <v>2.45</v>
+        <v>1.34</v>
       </c>
       <c r="L20" t="n">
-        <v>0.89</v>
+        <v>0.24</v>
       </c>
       <c r="M20" t="n">
-        <v>0.56</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2208,16 +2208,16 @@
         <v>113</v>
       </c>
       <c r="D21" t="n">
-        <v>5.31</v>
+        <v>4.66</v>
       </c>
       <c r="E21" t="n">
-        <v>3.87</v>
+        <v>2.68</v>
       </c>
       <c r="F21" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2226,16 +2226,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.29</v>
+        <v>1.53</v>
       </c>
       <c r="K21" t="n">
-        <v>0.91</v>
+        <v>0.24</v>
       </c>
       <c r="L21" t="n">
-        <v>0.18</v>
+        <v>0.04</v>
       </c>
       <c r="M21" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2255,16 +2255,16 @@
         <v>115</v>
       </c>
       <c r="D22" t="n">
-        <v>3.25</v>
+        <v>2.58</v>
       </c>
       <c r="E22" t="n">
-        <v>1.77</v>
+        <v>0.89</v>
       </c>
       <c r="F22" t="n">
-        <v>0.74</v>
+        <v>0.17</v>
       </c>
       <c r="G22" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2273,16 +2273,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.01</v>
+        <v>1.39</v>
       </c>
       <c r="K22" t="n">
-        <v>0.59</v>
+        <v>0.16</v>
       </c>
       <c r="L22" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="M22" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2302,16 +2302,16 @@
         <v>116</v>
       </c>
       <c r="D23" t="n">
-        <v>1.98</v>
+        <v>1.4</v>
       </c>
       <c r="E23" t="n">
-        <v>0.57</v>
+        <v>0.27</v>
       </c>
       <c r="F23" t="n">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
       <c r="G23" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2320,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.69</v>
+        <v>1.19</v>
       </c>
       <c r="K23" t="n">
-        <v>0.37</v>
+        <v>0.11</v>
       </c>
       <c r="L23" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -2349,16 +2349,16 @@
         <v>118</v>
       </c>
       <c r="D24" t="n">
-        <v>1.12</v>
+        <v>0.82</v>
       </c>
       <c r="E24" t="n">
-        <v>0.49</v>
+        <v>0.18</v>
       </c>
       <c r="F24" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2367,16 +2367,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.17</v>
+        <v>0.85</v>
       </c>
       <c r="K24" t="n">
-        <v>0.49</v>
+        <v>0.17</v>
       </c>
       <c r="L24" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="M24" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2396,34 +2396,34 @@
         <v>119</v>
       </c>
       <c r="D25" t="n">
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="E25" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L25" t="n">
         <v>0.01</v>
       </c>
-      <c r="G25" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.05</v>
-      </c>
       <c r="M25" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2443,13 +2443,13 @@
         <v>120</v>
       </c>
       <c r="D26" t="n">
-        <v>2.3</v>
+        <v>1.84</v>
       </c>
       <c r="E26" t="n">
-        <v>1.22</v>
+        <v>0.46</v>
       </c>
       <c r="F26" t="n">
-        <v>0.31</v>
+        <v>0.01</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2461,16 +2461,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.03</v>
+        <v>0.63</v>
       </c>
       <c r="K26" t="n">
-        <v>0.22</v>
+        <v>0.06</v>
       </c>
       <c r="L26" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2490,16 +2490,16 @@
         <v>122</v>
       </c>
       <c r="D27" t="n">
-        <v>3.39</v>
+        <v>2.39</v>
       </c>
       <c r="E27" t="n">
-        <v>1.65</v>
+        <v>0.62</v>
       </c>
       <c r="F27" t="n">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2508,16 +2508,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.43</v>
+        <v>0.68</v>
       </c>
       <c r="K27" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -2537,16 +2537,16 @@
         <v>123</v>
       </c>
       <c r="D28" t="n">
-        <v>1.29</v>
+        <v>0.83</v>
       </c>
       <c r="E28" t="n">
-        <v>0.23</v>
+        <v>0.05</v>
       </c>
       <c r="F28" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2555,16 +2555,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.23</v>
+        <v>0.75</v>
       </c>
       <c r="K28" t="n">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2584,16 +2584,16 @@
         <v>125</v>
       </c>
       <c r="D29" t="n">
-        <v>2.46</v>
+        <v>1.8</v>
       </c>
       <c r="E29" t="n">
-        <v>1.14</v>
+        <v>0.45</v>
       </c>
       <c r="F29" t="n">
-        <v>0.33</v>
+        <v>0.05</v>
       </c>
       <c r="G29" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2602,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.68</v>
+        <v>1.08</v>
       </c>
       <c r="K29" t="n">
-        <v>0.56</v>
+        <v>0.14</v>
       </c>
       <c r="L29" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2631,16 +2631,16 @@
         <v>126</v>
       </c>
       <c r="D30" t="n">
-        <v>1.12</v>
+        <v>0.6</v>
       </c>
       <c r="E30" t="n">
-        <v>0.14</v>
+        <v>0.02</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2649,16 +2649,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.98</v>
+        <v>0.54</v>
       </c>
       <c r="K30" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2678,16 +2678,16 @@
         <v>127</v>
       </c>
       <c r="D31" t="n">
-        <v>1.42</v>
+        <v>0.85</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3</v>
+        <v>0.02</v>
       </c>
       <c r="F31" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2696,16 +2696,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.18</v>
+        <v>0.64</v>
       </c>
       <c r="K31" t="n">
-        <v>0.26</v>
+        <v>0.02</v>
       </c>
       <c r="L31" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2725,34 +2725,34 @@
         <v>128</v>
       </c>
       <c r="D32" t="n">
-        <v>2.24</v>
+        <v>1.58</v>
       </c>
       <c r="E32" t="n">
-        <v>0.58</v>
+        <v>0.17</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.02</v>
       </c>
-      <c r="G32" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.18</v>
-      </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>130</v>
       </c>
       <c r="D33" t="n">
-        <v>2.19</v>
+        <v>1.49</v>
       </c>
       <c r="E33" t="n">
-        <v>0.74</v>
+        <v>0.15</v>
       </c>
       <c r="F33" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2790,16 +2790,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1.32</v>
+        <v>0.75</v>
       </c>
       <c r="K33" t="n">
-        <v>0.27</v>
+        <v>0.04</v>
       </c>
       <c r="L33" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2819,16 +2819,16 @@
         <v>131</v>
       </c>
       <c r="D34" t="n">
-        <v>4.31</v>
+        <v>3.64</v>
       </c>
       <c r="E34" t="n">
-        <v>2.59</v>
+        <v>1.44</v>
       </c>
       <c r="F34" t="n">
-        <v>1.02</v>
+        <v>0.24</v>
       </c>
       <c r="G34" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2837,16 +2837,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>3.43</v>
+        <v>2.74</v>
       </c>
       <c r="K34" t="n">
-        <v>1.74</v>
+        <v>0.72</v>
       </c>
       <c r="L34" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="M34" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
